--- a/biology/Botanique/Musa_coccinea/Musa_coccinea.xlsx
+++ b/biology/Botanique/Musa_coccinea/Musa_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bananier rouge, Musa coccinea , est une espèce de Bananier de la famille des Musaceae.
 Il est originaire d’une région s’étendant de la Chine (du Guangdong au Sud Est du Yunnan) jusqu’au Vietnam.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première description en latin, mais aussi en anglais, fut faite en 1799 par Henry Cranke Andrews, accompagnée de deux planches de couleur dans le Volume 1 de sa publication « The Botanist’s Repository” planches 47[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description en latin, mais aussi en anglais, fut faite en 1799 par Henry Cranke Andrews, accompagnée de deux planches de couleur dans le Volume 1 de sa publication « The Botanist’s Repository” planches 47.
 Les feuilles minces sont très longues pouvant atteindre 2 m de haut.
 Les inflorescences tournées vers le haut, sont d’un très beau rouge écarlate
 			Musa coccinea
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bananier rouge est cultivé comme plante ornementale dans les jardins tropicaux.
 Il est idéal également en fleurs coupées, celles-ci pouvant tenir de 1 à 2 mois.
@@ -581,7 +597,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quesnelia lamarckii Baker, Handb. Bromel. 85, 1889.</t>
         </is>
